--- a/Test Reports/2659_test.xlsx
+++ b/Test Reports/2659_test.xlsx
@@ -424,186 +424,188 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Test ID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Test ID</t>
+          <t>Collection Date</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Sample Collection Date</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Area (ha)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Area (ha)</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>Mobile No.</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Mobile No.</t>
+          <t>Soil pH</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Soil pH</t>
+          <t>Nitrogen</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Nitrogen</t>
+          <t>Phosphorus</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Phosphorus</t>
+          <t>Potassium</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Potassium</t>
+          <t>Electrical Conductivity</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Electrical Conductivity</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>Moisture</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Moisture</t>
+          <t>Humidity</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Soil Health Score</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>Soil Health Score</t>
+          <t>Recommendations</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Crop Recommendations</t>
+          <t>Fertilizer Recommendation</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2659</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2659</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>11-03-2024</t>
-        </is>
+          <t>25-04-2024</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>265.256598</v>
       </c>
       <c r="D2" t="n">
-        <v>265.85956</v>
-      </c>
-      <c r="E2" t="n">
-        <v>226.5656</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>asjdklasjdkl</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+        <v>352.356565</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Lalchawimawii</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>2.5</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>22</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>33</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Zarkawt, Aizawl</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3a3sd5a6sd</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2659589856</t>
-        </is>
+          <t>9865323265</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>5.5</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
         <v>200</v>
       </c>
       <c r="O2" t="n">
-        <v>200</v>
+        <v>3.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.5625451420086434</v>
+        <v>0.5535232709427351</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Grow maize, soybean, groundnut, cotton, and incorporate legumes into the cropping system.</t>
+        </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Millets(Pearl Millet, Sorghum), Maize, Soybean, Groundnut</t>
+          <t>No specific fertilizer recommendation available for the given soil data. Please consult with local agriculture experts for personalized recommendations.</t>
         </is>
       </c>
     </row>
